--- a/natmiOut/OldD0/LR-pairs_lrc2p/Nid1-Itgb3.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Nid1-Itgb3.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.5215299937569</v>
+        <v>43.995596</v>
       </c>
       <c r="H2">
-        <v>13.5215299937569</v>
+        <v>131.986788</v>
       </c>
       <c r="I2">
-        <v>0.02711864649906998</v>
+        <v>0.08241811124115486</v>
       </c>
       <c r="J2">
-        <v>0.02711864649906998</v>
+        <v>0.08241811124115485</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.12912233874293</v>
+        <v>7.214110666666667</v>
       </c>
       <c r="N2">
-        <v>6.12912233874293</v>
+        <v>21.642332</v>
       </c>
       <c r="O2">
-        <v>0.4304256699440325</v>
+        <v>0.4688823795981188</v>
       </c>
       <c r="P2">
-        <v>0.4304256699440325</v>
+        <v>0.4688823795981188</v>
       </c>
       <c r="Q2">
-        <v>82.87511153871797</v>
+        <v>317.3890983899573</v>
       </c>
       <c r="R2">
-        <v>82.87511153871797</v>
+        <v>2856.501885509616</v>
       </c>
       <c r="S2">
-        <v>0.01167256158733759</v>
+        <v>0.03864440012073516</v>
       </c>
       <c r="T2">
-        <v>0.01167256158733759</v>
+        <v>0.03864440012073515</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.5215299937569</v>
+        <v>43.995596</v>
       </c>
       <c r="H3">
-        <v>13.5215299937569</v>
+        <v>131.986788</v>
       </c>
       <c r="I3">
-        <v>0.02711864649906998</v>
+        <v>0.08241811124115486</v>
       </c>
       <c r="J3">
-        <v>0.02711864649906998</v>
+        <v>0.08241811124115485</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.0811189833722</v>
+        <v>7.110350666666666</v>
       </c>
       <c r="N3">
-        <v>7.0811189833722</v>
+        <v>21.331052</v>
       </c>
       <c r="O3">
-        <v>0.4972808852427805</v>
+        <v>0.4621384803214003</v>
       </c>
       <c r="P3">
-        <v>0.4972808852427805</v>
+        <v>0.4621384803214003</v>
       </c>
       <c r="Q3">
-        <v>95.74756272302857</v>
+        <v>312.8241153489973</v>
       </c>
       <c r="R3">
-        <v>95.74756272302857</v>
+        <v>2815.417038140976</v>
       </c>
       <c r="S3">
-        <v>0.01348558453764355</v>
+        <v>0.03808858067994743</v>
       </c>
       <c r="T3">
-        <v>0.01348558453764355</v>
+        <v>0.03808858067994742</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.5215299937569</v>
+        <v>43.995596</v>
       </c>
       <c r="H4">
-        <v>13.5215299937569</v>
+        <v>131.986788</v>
       </c>
       <c r="I4">
-        <v>0.02711864649906998</v>
+        <v>0.08241811124115486</v>
       </c>
       <c r="J4">
-        <v>0.02711864649906998</v>
+        <v>0.08241811124115485</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.02943527417126</v>
+        <v>1.061296333333333</v>
       </c>
       <c r="N4">
-        <v>1.02943527417126</v>
+        <v>3.183889</v>
       </c>
       <c r="O4">
-        <v>0.07229344481318696</v>
+        <v>0.06897914008048092</v>
       </c>
       <c r="P4">
-        <v>0.07229344481318696</v>
+        <v>0.06897914008048092</v>
       </c>
       <c r="Q4">
-        <v>13.91953993633805</v>
+        <v>46.69236471761466</v>
       </c>
       <c r="R4">
-        <v>13.91953993633805</v>
+        <v>420.231282458532</v>
       </c>
       <c r="S4">
-        <v>0.001960500374088842</v>
+        <v>0.00568513044047228</v>
       </c>
       <c r="T4">
-        <v>0.001960500374088842</v>
+        <v>0.005685130440472279</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>435.851711549056</v>
+        <v>439.8208616666666</v>
       </c>
       <c r="H5">
-        <v>435.851711549056</v>
+        <v>1319.462585</v>
       </c>
       <c r="I5">
-        <v>0.8741398715212562</v>
+        <v>0.8239280291378236</v>
       </c>
       <c r="J5">
-        <v>0.8741398715212562</v>
+        <v>0.8239280291378236</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.12912233874293</v>
+        <v>7.214110666666667</v>
       </c>
       <c r="N5">
-        <v>6.12912233874293</v>
+        <v>21.642332</v>
       </c>
       <c r="O5">
-        <v>0.4304256699440325</v>
+        <v>0.4688823795981188</v>
       </c>
       <c r="P5">
-        <v>0.4304256699440325</v>
+        <v>0.4688823795981188</v>
       </c>
       <c r="Q5">
-        <v>2671.388461634659</v>
+        <v>3172.916369572024</v>
       </c>
       <c r="R5">
-        <v>2671.388461634659</v>
+        <v>28556.24732614822</v>
       </c>
       <c r="S5">
-        <v>0.3762522398243272</v>
+        <v>0.3863253349197309</v>
       </c>
       <c r="T5">
-        <v>0.3762522398243272</v>
+        <v>0.3863253349197309</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>435.851711549056</v>
+        <v>439.8208616666666</v>
       </c>
       <c r="H6">
-        <v>435.851711549056</v>
+        <v>1319.462585</v>
       </c>
       <c r="I6">
-        <v>0.8741398715212562</v>
+        <v>0.8239280291378236</v>
       </c>
       <c r="J6">
-        <v>0.8741398715212562</v>
+        <v>0.8239280291378236</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.0811189833722</v>
+        <v>7.110350666666666</v>
       </c>
       <c r="N6">
-        <v>7.0811189833722</v>
+        <v>21.331052</v>
       </c>
       <c r="O6">
-        <v>0.4972808852427805</v>
+        <v>0.4621384803214003</v>
       </c>
       <c r="P6">
-        <v>0.4972808852427805</v>
+        <v>0.4621384803214003</v>
       </c>
       <c r="Q6">
-        <v>3086.317828585285</v>
+        <v>3127.280556965491</v>
       </c>
       <c r="R6">
-        <v>3086.317828585285</v>
+        <v>28145.52501268942</v>
       </c>
       <c r="S6">
-        <v>0.4346930491361007</v>
+        <v>0.3807688472799602</v>
       </c>
       <c r="T6">
-        <v>0.4346930491361007</v>
+        <v>0.3807688472799602</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>435.851711549056</v>
+        <v>439.8208616666666</v>
       </c>
       <c r="H7">
-        <v>435.851711549056</v>
+        <v>1319.462585</v>
       </c>
       <c r="I7">
-        <v>0.8741398715212562</v>
+        <v>0.8239280291378236</v>
       </c>
       <c r="J7">
-        <v>0.8741398715212562</v>
+        <v>0.8239280291378236</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.02943527417126</v>
+        <v>1.061296333333333</v>
       </c>
       <c r="N7">
-        <v>1.02943527417126</v>
+        <v>3.183889</v>
       </c>
       <c r="O7">
-        <v>0.07229344481318696</v>
+        <v>0.06897914008048092</v>
       </c>
       <c r="P7">
-        <v>0.07229344481318696</v>
+        <v>0.06897914008048092</v>
       </c>
       <c r="Q7">
-        <v>448.6811261765154</v>
+        <v>466.7802678103405</v>
       </c>
       <c r="R7">
-        <v>448.6811261765154</v>
+        <v>4201.022410293064</v>
       </c>
       <c r="S7">
-        <v>0.06319458256082827</v>
+        <v>0.0568338469381325</v>
       </c>
       <c r="T7">
-        <v>0.06319458256082827</v>
+        <v>0.0568338469381325</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>49.233132275313</v>
+        <v>49.99334866666667</v>
       </c>
       <c r="H8">
-        <v>49.233132275313</v>
+        <v>149.980046</v>
       </c>
       <c r="I8">
-        <v>0.09874148197967383</v>
+        <v>0.09365385962102149</v>
       </c>
       <c r="J8">
-        <v>0.09874148197967383</v>
+        <v>0.09365385962102149</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.12912233874293</v>
+        <v>7.214110666666667</v>
       </c>
       <c r="N8">
-        <v>6.12912233874293</v>
+        <v>21.642332</v>
       </c>
       <c r="O8">
-        <v>0.4304256699440325</v>
+        <v>0.4688823795981188</v>
       </c>
       <c r="P8">
-        <v>0.4304256699440325</v>
+        <v>0.4688823795981188</v>
       </c>
       <c r="Q8">
-        <v>301.7558908349064</v>
+        <v>360.6575498785858</v>
       </c>
       <c r="R8">
-        <v>301.7558908349064</v>
+        <v>3245.917948907272</v>
       </c>
       <c r="S8">
-        <v>0.04250086853236772</v>
+        <v>0.04391264455765273</v>
       </c>
       <c r="T8">
-        <v>0.04250086853236772</v>
+        <v>0.04391264455765273</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>49.233132275313</v>
+        <v>49.99334866666667</v>
       </c>
       <c r="H9">
-        <v>49.233132275313</v>
+        <v>149.980046</v>
       </c>
       <c r="I9">
-        <v>0.09874148197967383</v>
+        <v>0.09365385962102149</v>
       </c>
       <c r="J9">
-        <v>0.09874148197967383</v>
+        <v>0.09365385962102149</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.0811189833722</v>
+        <v>7.110350666666666</v>
       </c>
       <c r="N9">
-        <v>7.0811189833722</v>
+        <v>21.331052</v>
       </c>
       <c r="O9">
-        <v>0.4972808852427805</v>
+        <v>0.4621384803214003</v>
       </c>
       <c r="P9">
-        <v>0.4972808852427805</v>
+        <v>0.4621384803214003</v>
       </c>
       <c r="Q9">
-        <v>348.6256675655934</v>
+        <v>355.4702400209325</v>
       </c>
       <c r="R9">
-        <v>348.6256675655934</v>
+        <v>3199.232160188392</v>
       </c>
       <c r="S9">
-        <v>0.04910225156903626</v>
+        <v>0.04328105236149263</v>
       </c>
       <c r="T9">
-        <v>0.04910225156903626</v>
+        <v>0.04328105236149263</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>49.233132275313</v>
+        <v>49.99334866666667</v>
       </c>
       <c r="H10">
-        <v>49.233132275313</v>
+        <v>149.980046</v>
       </c>
       <c r="I10">
-        <v>0.09874148197967383</v>
+        <v>0.09365385962102149</v>
       </c>
       <c r="J10">
-        <v>0.09874148197967383</v>
+        <v>0.09365385962102149</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.02943527417126</v>
+        <v>1.061296333333333</v>
       </c>
       <c r="N10">
-        <v>1.02943527417126</v>
+        <v>3.183889</v>
       </c>
       <c r="O10">
-        <v>0.07229344481318696</v>
+        <v>0.06897914008048092</v>
       </c>
       <c r="P10">
-        <v>0.07229344481318696</v>
+        <v>0.06897914008048092</v>
       </c>
       <c r="Q10">
-        <v>50.68232302214675</v>
+        <v>53.05775763098822</v>
       </c>
       <c r="R10">
-        <v>50.68232302214675</v>
+        <v>477.519818678894</v>
       </c>
       <c r="S10">
-        <v>0.007138361878269845</v>
+        <v>0.006460162701876137</v>
       </c>
       <c r="T10">
-        <v>0.007138361878269845</v>
+        <v>0.006460162701876137</v>
       </c>
     </row>
   </sheetData>
